--- a/model/results/ELEC/v_inv_tech.xlsx
+++ b/model/results/ELEC/v_inv_tech.xlsx
@@ -781,13 +781,13 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>789788999.9999999</v>
+        <v>607530000.0000002</v>
       </c>
       <c r="C3" t="n">
-        <v>607530000.0000002</v>
+        <v>607530000</v>
       </c>
       <c r="D3" t="n">
-        <v>789788999.9999999</v>
+        <v>607530000.0000001</v>
       </c>
       <c r="E3" t="n">
         <v>185955000.0000001</v>
@@ -1311,7 +1311,7 @@
         <v>881058775.437717</v>
       </c>
       <c r="D7" t="n">
-        <v>416715465.054099</v>
+        <v>881058775.437717</v>
       </c>
       <c r="E7" t="n">
         <v>269677686.0180084</v>
@@ -1722,73 +1722,73 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51430002.8607171</v>
+        <v>20572001.14428683</v>
       </c>
       <c r="K10" t="n">
-        <v>8228800.457714735</v>
+        <v>3291520.183085893</v>
       </c>
       <c r="L10" t="n">
+        <v>1645760.091542947</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2674360.148757288</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1851480.102985815</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9257400.514929073</v>
+      </c>
+      <c r="P10" t="n">
+        <v>16457600.91542947</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6171600.34328605</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2057200.114428683</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10697440.59502915</v>
+      </c>
+      <c r="T10" t="n">
+        <v>205720.0114428683</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5554440.308957445</v>
+      </c>
+      <c r="V10" t="n">
         <v>4114400.228857367</v>
       </c>
-      <c r="M10" t="n">
-        <v>6685900.371893222</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4628700.257464538</v>
-      </c>
-      <c r="O10" t="n">
-        <v>23143501.28732269</v>
-      </c>
-      <c r="P10" t="n">
-        <v>41144002.28857367</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>15429000.85821513</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5143000.286071709</v>
-      </c>
-      <c r="S10" t="n">
-        <v>26743601.48757289</v>
-      </c>
-      <c r="T10" t="n">
-        <v>514300.0286071709</v>
-      </c>
-      <c r="U10" t="n">
-        <v>13886100.77239362</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10286000.57214342</v>
-      </c>
       <c r="W10" t="n">
-        <v>3600100.200250196</v>
+        <v>1440040.080100078</v>
       </c>
       <c r="X10" t="n">
-        <v>22629201.25871552</v>
+        <v>9051680.503486207</v>
       </c>
       <c r="Y10" t="n">
-        <v>19029101.05846532</v>
+        <v>7611640.423386128</v>
       </c>
       <c r="Z10" t="n">
-        <v>10286000.57214342</v>
+        <v>4114400.228857367</v>
       </c>
       <c r="AA10" t="n">
-        <v>51430.00286071709</v>
+        <v>20572.00114428683</v>
       </c>
       <c r="AB10" t="n">
-        <v>257150.0143035855</v>
+        <v>102860.0057214342</v>
       </c>
       <c r="AC10" t="n">
-        <v>6171600.343286051</v>
+        <v>2468640.13731442</v>
       </c>
       <c r="AD10" t="n">
-        <v>1542900.085821513</v>
+        <v>617160.0343286049</v>
       </c>
       <c r="AE10" t="n">
-        <v>13886100.77239362</v>
+        <v>5554440.308957445</v>
       </c>
       <c r="AF10" t="n">
-        <v>3085800.171643026</v>
+        <v>1234320.06865721</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>902280066.4255809</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>902280066.4255809</v>
       </c>
       <c r="E11" t="n">
-        <v>276173176.2253203</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>276173176.2253203</v>
@@ -2091,16 +2091,16 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>904085528.8384984</v>
+        <v>904085528.8384975</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1371221873.527908</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>276725798.750947</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
